--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guhan\CPSATAdvExam\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guhan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51557C4-ED11-4DCD-8445-5534E9273184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0A6E79B-0915-4822-BC19-BBEA211B3F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CE7B7BC5-756A-4DC7-BDD8-0739C9F57852}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,66 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Year Established</t>
-  </si>
-  <si>
-    <t>No.of Candidates Appeared</t>
-  </si>
-  <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>City 1</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>City 3</t>
-  </si>
-  <si>
-    <t>6000+</t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>City 6</t>
-  </si>
-  <si>
-    <t>12000+</t>
-  </si>
-  <si>
-    <t>Test 4</t>
-  </si>
-  <si>
-    <t>शहर १०</t>
-  </si>
-  <si>
-    <t>२०१०</t>
-  </si>
-  <si>
-    <t>१८०००+</t>
-  </si>
-  <si>
-    <t>Test 5</t>
-  </si>
-  <si>
-    <t>City 8</t>
-  </si>
-  <si>
-    <t>15000+</t>
-  </si>
-  <si>
-    <t>4000+</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>Sr.No</t>
+  </si>
+  <si>
+    <t>Mayiki Consultants</t>
+  </si>
+  <si>
+    <t>Essence of Testing</t>
+  </si>
+  <si>
+    <t>Utopia Solutions</t>
   </si>
 </sst>
 </file>
@@ -120,11 +78,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,7 +114,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -171,7 +126,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -218,6 +173,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -253,6 +225,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,101 +393,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17E2DE7-DC0E-4FC3-8902-E3AE652C45FA}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1987</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1991</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4">
-        <v>2000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>2005</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
